--- a/data/5160.xlsx
+++ b/data/5160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42973,6 +42973,41 @@
         <v>111900</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5160</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>HOMERIZ</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>53100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5160.xlsx
+++ b/data/5160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43008,6 +43008,41 @@
         <v>53100</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5160</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>HOMERIZ</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>62000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5160.xlsx
+++ b/data/5160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43043,6 +43043,41 @@
         <v>62000</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5160</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>HOMERIZ</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>39900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5160.xlsx
+++ b/data/5160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43078,6 +43078,41 @@
         <v>39900</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5160</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>HOMERIZ</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>49500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5160.xlsx
+++ b/data/5160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43113,6 +43113,41 @@
         <v>49500</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5160</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>HOMERIZ</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>54400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5160.xlsx
+++ b/data/5160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43148,6 +43148,41 @@
         <v>54400</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5160</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>HOMERIZ</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>23000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5160.xlsx
+++ b/data/5160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43183,6 +43183,41 @@
         <v>23000</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5160</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>HOMERIZ</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>25000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5160.xlsx
+++ b/data/5160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43218,6 +43218,41 @@
         <v>25000</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5160</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>HOMERIZ</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>287800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5160.xlsx
+++ b/data/5160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43253,6 +43253,41 @@
         <v>287800</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5160</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>HOMERIZ</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>224800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5160.xlsx
+++ b/data/5160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43288,6 +43288,41 @@
         <v>224800</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5160</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>HOMERIZ</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>645300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5160.xlsx
+++ b/data/5160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43323,6 +43323,41 @@
         <v>645300</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5160</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>HOMERIZ</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>706600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5160.xlsx
+++ b/data/5160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43358,6 +43358,41 @@
         <v>706600</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5160</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>HOMERIZ</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>230100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5160.xlsx
+++ b/data/5160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43393,6 +43393,76 @@
         <v>230100</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5160</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>HOMERIZ</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>76000</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5160</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>HOMERIZ</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>641300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5160.xlsx
+++ b/data/5160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43463,6 +43463,76 @@
         <v>641300</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5160</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>HOMERIZ</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>424000</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5160</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>HOMERIZ</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>91100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5160.xlsx
+++ b/data/5160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43533,6 +43533,41 @@
         <v>91100</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5160</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>HOMERIZ</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>163600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5160.xlsx
+++ b/data/5160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43568,6 +43568,41 @@
         <v>163600</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>5160</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>HOMERIZ</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>64500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5160.xlsx
+++ b/data/5160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43603,6 +43603,41 @@
         <v>64500</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>5160</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>HOMERIZ</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>62700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5160.xlsx
+++ b/data/5160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43638,6 +43638,41 @@
         <v>62700</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>5160</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>HOMERIZ</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>903800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5160.xlsx
+++ b/data/5160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43673,6 +43673,76 @@
         <v>903800</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>5160</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>HOMERIZ</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>216400</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>5160</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>HOMERIZ</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>90900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5160.xlsx
+++ b/data/5160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43743,6 +43743,41 @@
         <v>90900</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>5160</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>HOMERIZ</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>423500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5160.xlsx
+++ b/data/5160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43778,6 +43778,41 @@
         <v>423500</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>5160</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>HOMERIZ</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>865200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5160.xlsx
+++ b/data/5160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2301"/>
+  <dimension ref="A1:I2302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80913,6 +80913,41 @@
         <v>865200</v>
       </c>
     </row>
+    <row r="2302">
+      <c r="A2302" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2302" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2302" t="inlineStr">
+        <is>
+          <t>5160</t>
+        </is>
+      </c>
+      <c r="D2302" t="inlineStr">
+        <is>
+          <t>HOMERIZ</t>
+        </is>
+      </c>
+      <c r="E2302" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="F2302" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="G2302" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H2302" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I2302" t="n">
+        <v>735500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5160.xlsx
+++ b/data/5160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2302"/>
+  <dimension ref="A1:I2303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80948,6 +80948,41 @@
         <v>735500</v>
       </c>
     </row>
+    <row r="2303">
+      <c r="A2303" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2303" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2303" t="inlineStr">
+        <is>
+          <t>5160</t>
+        </is>
+      </c>
+      <c r="D2303" t="inlineStr">
+        <is>
+          <t>HOMERIZ</t>
+        </is>
+      </c>
+      <c r="E2303" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F2303" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G2303" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H2303" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I2303" t="n">
+        <v>670600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5160.xlsx
+++ b/data/5160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2303"/>
+  <dimension ref="A1:I2304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80983,6 +80983,41 @@
         <v>670600</v>
       </c>
     </row>
+    <row r="2304">
+      <c r="A2304" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2304" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2304" t="inlineStr">
+        <is>
+          <t>5160</t>
+        </is>
+      </c>
+      <c r="D2304" t="inlineStr">
+        <is>
+          <t>HOMERIZ</t>
+        </is>
+      </c>
+      <c r="E2304" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F2304" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G2304" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H2304" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I2304" t="n">
+        <v>532100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5160.xlsx
+++ b/data/5160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2304"/>
+  <dimension ref="A1:I2305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81018,6 +81018,41 @@
         <v>532100</v>
       </c>
     </row>
+    <row r="2305">
+      <c r="A2305" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2305" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2305" t="inlineStr">
+        <is>
+          <t>5160</t>
+        </is>
+      </c>
+      <c r="D2305" t="inlineStr">
+        <is>
+          <t>HOMERIZ</t>
+        </is>
+      </c>
+      <c r="E2305" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F2305" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G2305" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H2305" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="I2305" t="n">
+        <v>775900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5160.xlsx
+++ b/data/5160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2305"/>
+  <dimension ref="A1:I2306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81053,6 +81053,41 @@
         <v>775900</v>
       </c>
     </row>
+    <row r="2306">
+      <c r="A2306" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2306" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2306" t="inlineStr">
+        <is>
+          <t>5160</t>
+        </is>
+      </c>
+      <c r="D2306" t="inlineStr">
+        <is>
+          <t>HOMERIZ</t>
+        </is>
+      </c>
+      <c r="E2306" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F2306" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="G2306" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H2306" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="I2306" t="n">
+        <v>755500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5160.xlsx
+++ b/data/5160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2306"/>
+  <dimension ref="A1:I2307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81088,6 +81088,41 @@
         <v>755500</v>
       </c>
     </row>
+    <row r="2307">
+      <c r="A2307" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2307" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2307" t="inlineStr">
+        <is>
+          <t>5160</t>
+        </is>
+      </c>
+      <c r="D2307" t="inlineStr">
+        <is>
+          <t>HOMERIZ</t>
+        </is>
+      </c>
+      <c r="E2307" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F2307" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G2307" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H2307" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I2307" t="n">
+        <v>410500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5160.xlsx
+++ b/data/5160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2307"/>
+  <dimension ref="A1:I2308"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81123,6 +81123,41 @@
         <v>410500</v>
       </c>
     </row>
+    <row r="2308">
+      <c r="A2308" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2308" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2308" t="inlineStr">
+        <is>
+          <t>5160</t>
+        </is>
+      </c>
+      <c r="D2308" t="inlineStr">
+        <is>
+          <t>HOMERIZ</t>
+        </is>
+      </c>
+      <c r="E2308" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F2308" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G2308" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H2308" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="I2308" t="n">
+        <v>94600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5160.xlsx
+++ b/data/5160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2308"/>
+  <dimension ref="A1:I2309"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81158,6 +81158,41 @@
         <v>94600</v>
       </c>
     </row>
+    <row r="2309">
+      <c r="A2309" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2309" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2309" t="inlineStr">
+        <is>
+          <t>5160</t>
+        </is>
+      </c>
+      <c r="D2309" t="inlineStr">
+        <is>
+          <t>HOMERIZ</t>
+        </is>
+      </c>
+      <c r="E2309" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F2309" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="G2309" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="H2309" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="I2309" t="n">
+        <v>491200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5160.xlsx
+++ b/data/5160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2309"/>
+  <dimension ref="A1:I2310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81193,6 +81193,41 @@
         <v>491200</v>
       </c>
     </row>
+    <row r="2310">
+      <c r="A2310" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2310" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2310" t="inlineStr">
+        <is>
+          <t>5160</t>
+        </is>
+      </c>
+      <c r="D2310" t="inlineStr">
+        <is>
+          <t>HOMERIZ</t>
+        </is>
+      </c>
+      <c r="E2310" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F2310" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="G2310" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="H2310" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I2310" t="n">
+        <v>194200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5160.xlsx
+++ b/data/5160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2310"/>
+  <dimension ref="A1:I2311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81228,6 +81228,41 @@
         <v>194200</v>
       </c>
     </row>
+    <row r="2311">
+      <c r="A2311" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2311" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2311" t="inlineStr">
+        <is>
+          <t>5160</t>
+        </is>
+      </c>
+      <c r="D2311" t="inlineStr">
+        <is>
+          <t>HOMERIZ</t>
+        </is>
+      </c>
+      <c r="E2311" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F2311" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G2311" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H2311" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I2311" t="n">
+        <v>291600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5160.xlsx
+++ b/data/5160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2311"/>
+  <dimension ref="A1:I2312"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81263,6 +81263,41 @@
         <v>291600</v>
       </c>
     </row>
+    <row r="2312">
+      <c r="A2312" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2312" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2312" t="inlineStr">
+        <is>
+          <t>5160</t>
+        </is>
+      </c>
+      <c r="D2312" t="inlineStr">
+        <is>
+          <t>HOMERIZ</t>
+        </is>
+      </c>
+      <c r="E2312" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F2312" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G2312" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="H2312" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="I2312" t="n">
+        <v>117700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5160.xlsx
+++ b/data/5160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2312"/>
+  <dimension ref="A1:I2313"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81298,6 +81298,41 @@
         <v>117700</v>
       </c>
     </row>
+    <row r="2313">
+      <c r="A2313" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2313" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2313" t="inlineStr">
+        <is>
+          <t>5160</t>
+        </is>
+      </c>
+      <c r="D2313" t="inlineStr">
+        <is>
+          <t>HOMERIZ</t>
+        </is>
+      </c>
+      <c r="E2313" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="F2313" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="G2313" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="H2313" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="I2313" t="n">
+        <v>451800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5160.xlsx
+++ b/data/5160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2313"/>
+  <dimension ref="A1:I2314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81333,6 +81333,41 @@
         <v>451800</v>
       </c>
     </row>
+    <row r="2314">
+      <c r="A2314" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2314" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2314" t="inlineStr">
+        <is>
+          <t>5160</t>
+        </is>
+      </c>
+      <c r="D2314" t="inlineStr">
+        <is>
+          <t>HOMERIZ</t>
+        </is>
+      </c>
+      <c r="E2314" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F2314" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G2314" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H2314" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I2314" t="n">
+        <v>1830400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5160.xlsx
+++ b/data/5160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2314"/>
+  <dimension ref="A1:I2315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81368,6 +81368,41 @@
         <v>1830400</v>
       </c>
     </row>
+    <row r="2315">
+      <c r="A2315" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2315" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2315" t="inlineStr">
+        <is>
+          <t>5160</t>
+        </is>
+      </c>
+      <c r="D2315" t="inlineStr">
+        <is>
+          <t>HOMERIZ</t>
+        </is>
+      </c>
+      <c r="E2315" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F2315" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="G2315" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H2315" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I2315" t="n">
+        <v>268100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5160.xlsx
+++ b/data/5160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2315"/>
+  <dimension ref="A1:I2316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81403,6 +81403,41 @@
         <v>268100</v>
       </c>
     </row>
+    <row r="2316">
+      <c r="A2316" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2316" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2316" t="inlineStr">
+        <is>
+          <t>5160</t>
+        </is>
+      </c>
+      <c r="D2316" t="inlineStr">
+        <is>
+          <t>HOMERIZ</t>
+        </is>
+      </c>
+      <c r="E2316" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F2316" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="G2316" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H2316" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I2316" t="n">
+        <v>690600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5160.xlsx
+++ b/data/5160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2316"/>
+  <dimension ref="A1:I2317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81438,6 +81438,41 @@
         <v>690600</v>
       </c>
     </row>
+    <row r="2317">
+      <c r="A2317" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2317" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2317" t="inlineStr">
+        <is>
+          <t>5160</t>
+        </is>
+      </c>
+      <c r="D2317" t="inlineStr">
+        <is>
+          <t>HOMERIZ</t>
+        </is>
+      </c>
+      <c r="E2317" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F2317" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="G2317" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="H2317" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="I2317" t="n">
+        <v>480000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5160.xlsx
+++ b/data/5160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2317"/>
+  <dimension ref="A1:I2318"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81473,6 +81473,41 @@
         <v>480000</v>
       </c>
     </row>
+    <row r="2318">
+      <c r="A2318" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2318" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2318" t="inlineStr">
+        <is>
+          <t>5160</t>
+        </is>
+      </c>
+      <c r="D2318" t="inlineStr">
+        <is>
+          <t>HOMERIZ</t>
+        </is>
+      </c>
+      <c r="E2318" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="F2318" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G2318" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="H2318" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I2318" t="n">
+        <v>1378100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5160.xlsx
+++ b/data/5160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2318"/>
+  <dimension ref="A1:I2319"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81508,6 +81508,41 @@
         <v>1378100</v>
       </c>
     </row>
+    <row r="2319">
+      <c r="A2319" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2319" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2319" t="inlineStr">
+        <is>
+          <t>5160</t>
+        </is>
+      </c>
+      <c r="D2319" t="inlineStr">
+        <is>
+          <t>HOMERIZ</t>
+        </is>
+      </c>
+      <c r="E2319" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F2319" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="G2319" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H2319" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I2319" t="n">
+        <v>962100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5160.xlsx
+++ b/data/5160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2319"/>
+  <dimension ref="A1:I2320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81543,6 +81543,41 @@
         <v>962100</v>
       </c>
     </row>
+    <row r="2320">
+      <c r="A2320" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2320" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2320" t="inlineStr">
+        <is>
+          <t>5160</t>
+        </is>
+      </c>
+      <c r="D2320" t="inlineStr">
+        <is>
+          <t>HOMERIZ</t>
+        </is>
+      </c>
+      <c r="E2320" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F2320" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G2320" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="H2320" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="I2320" t="n">
+        <v>937100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5160.xlsx
+++ b/data/5160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2320"/>
+  <dimension ref="A1:I2321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81578,6 +81578,41 @@
         <v>937100</v>
       </c>
     </row>
+    <row r="2321">
+      <c r="A2321" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2321" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2321" t="inlineStr">
+        <is>
+          <t>5160</t>
+        </is>
+      </c>
+      <c r="D2321" t="inlineStr">
+        <is>
+          <t>HOMERIZ</t>
+        </is>
+      </c>
+      <c r="E2321" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="F2321" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="G2321" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="H2321" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I2321" t="n">
+        <v>1041500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5160.xlsx
+++ b/data/5160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2321"/>
+  <dimension ref="A1:I2322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81613,6 +81613,41 @@
         <v>1041500</v>
       </c>
     </row>
+    <row r="2322">
+      <c r="A2322" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2322" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2322" t="inlineStr">
+        <is>
+          <t>5160</t>
+        </is>
+      </c>
+      <c r="D2322" t="inlineStr">
+        <is>
+          <t>HOMERIZ</t>
+        </is>
+      </c>
+      <c r="E2322" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F2322" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G2322" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="H2322" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="I2322" t="n">
+        <v>580600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5160.xlsx
+++ b/data/5160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2322"/>
+  <dimension ref="A1:I2323"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81648,6 +81648,41 @@
         <v>580600</v>
       </c>
     </row>
+    <row r="2323">
+      <c r="A2323" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2323" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2323" t="inlineStr">
+        <is>
+          <t>5160</t>
+        </is>
+      </c>
+      <c r="D2323" t="inlineStr">
+        <is>
+          <t>HOMERIZ</t>
+        </is>
+      </c>
+      <c r="E2323" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F2323" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="G2323" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H2323" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I2323" t="n">
+        <v>211300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5160.xlsx
+++ b/data/5160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2323"/>
+  <dimension ref="A1:I2324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81683,6 +81683,41 @@
         <v>211300</v>
       </c>
     </row>
+    <row r="2324">
+      <c r="A2324" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2324" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2324" t="inlineStr">
+        <is>
+          <t>5160</t>
+        </is>
+      </c>
+      <c r="D2324" t="inlineStr">
+        <is>
+          <t>HOMERIZ</t>
+        </is>
+      </c>
+      <c r="E2324" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="F2324" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="G2324" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="H2324" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="I2324" t="n">
+        <v>207300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5160.xlsx
+++ b/data/5160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2324"/>
+  <dimension ref="A1:I2325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81718,6 +81718,41 @@
         <v>207300</v>
       </c>
     </row>
+    <row r="2325">
+      <c r="A2325" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2325" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2325" t="inlineStr">
+        <is>
+          <t>5160</t>
+        </is>
+      </c>
+      <c r="D2325" t="inlineStr">
+        <is>
+          <t>HOMERIZ</t>
+        </is>
+      </c>
+      <c r="E2325" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="F2325" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="G2325" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="H2325" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I2325" t="n">
+        <v>158400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5160.xlsx
+++ b/data/5160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2325"/>
+  <dimension ref="A1:I2326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81753,6 +81753,41 @@
         <v>158400</v>
       </c>
     </row>
+    <row r="2326">
+      <c r="A2326" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2326" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2326" t="inlineStr">
+        <is>
+          <t>5160</t>
+        </is>
+      </c>
+      <c r="D2326" t="inlineStr">
+        <is>
+          <t>HOMERIZ</t>
+        </is>
+      </c>
+      <c r="E2326" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F2326" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="G2326" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H2326" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I2326" t="n">
+        <v>403500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5160.xlsx
+++ b/data/5160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2326"/>
+  <dimension ref="A1:I2328"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81788,6 +81788,76 @@
         <v>403500</v>
       </c>
     </row>
+    <row r="2327">
+      <c r="A2327" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2327" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2327" t="inlineStr">
+        <is>
+          <t>5160</t>
+        </is>
+      </c>
+      <c r="D2327" t="inlineStr">
+        <is>
+          <t>HOMERIZ</t>
+        </is>
+      </c>
+      <c r="E2327" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F2327" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G2327" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H2327" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I2327" t="n">
+        <v>677600</v>
+      </c>
+    </row>
+    <row r="2328">
+      <c r="A2328" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2328" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2328" t="inlineStr">
+        <is>
+          <t>5160</t>
+        </is>
+      </c>
+      <c r="D2328" t="inlineStr">
+        <is>
+          <t>HOMERIZ</t>
+        </is>
+      </c>
+      <c r="E2328" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F2328" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G2328" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H2328" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I2328" t="n">
+        <v>504700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5160.xlsx
+++ b/data/5160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2328"/>
+  <dimension ref="A1:I2329"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81858,6 +81858,41 @@
         <v>504700</v>
       </c>
     </row>
+    <row r="2329">
+      <c r="A2329" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2329" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2329" t="inlineStr">
+        <is>
+          <t>5160</t>
+        </is>
+      </c>
+      <c r="D2329" t="inlineStr">
+        <is>
+          <t>HOMERIZ</t>
+        </is>
+      </c>
+      <c r="E2329" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="F2329" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G2329" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H2329" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I2329" t="n">
+        <v>287200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5160.xlsx
+++ b/data/5160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2329"/>
+  <dimension ref="A1:I2332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81893,6 +81893,111 @@
         <v>287200</v>
       </c>
     </row>
+    <row r="2330">
+      <c r="A2330" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2330" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2330" t="inlineStr">
+        <is>
+          <t>5160</t>
+        </is>
+      </c>
+      <c r="D2330" t="inlineStr">
+        <is>
+          <t>HOMERIZ</t>
+        </is>
+      </c>
+      <c r="E2330" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F2330" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G2330" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="H2330" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I2330" t="n">
+        <v>226100</v>
+      </c>
+    </row>
+    <row r="2331">
+      <c r="A2331" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2331" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2331" t="inlineStr">
+        <is>
+          <t>5160</t>
+        </is>
+      </c>
+      <c r="D2331" t="inlineStr">
+        <is>
+          <t>HOMERIZ</t>
+        </is>
+      </c>
+      <c r="E2331" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F2331" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="G2331" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H2331" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="I2331" t="n">
+        <v>138700</v>
+      </c>
+    </row>
+    <row r="2332">
+      <c r="A2332" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2332" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2332" t="inlineStr">
+        <is>
+          <t>5160</t>
+        </is>
+      </c>
+      <c r="D2332" t="inlineStr">
+        <is>
+          <t>HOMERIZ</t>
+        </is>
+      </c>
+      <c r="E2332" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="F2332" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="G2332" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H2332" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I2332" t="n">
+        <v>742200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5160.xlsx
+++ b/data/5160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2332"/>
+  <dimension ref="A1:I2333"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81998,6 +81998,41 @@
         <v>742200</v>
       </c>
     </row>
+    <row r="2333">
+      <c r="A2333" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2333" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2333" t="inlineStr">
+        <is>
+          <t>5160</t>
+        </is>
+      </c>
+      <c r="D2333" t="inlineStr">
+        <is>
+          <t>HOMERIZ</t>
+        </is>
+      </c>
+      <c r="E2333" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F2333" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="G2333" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H2333" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="I2333" t="n">
+        <v>242400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5160.xlsx
+++ b/data/5160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2333"/>
+  <dimension ref="A1:I2334"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82033,6 +82033,41 @@
         <v>242400</v>
       </c>
     </row>
+    <row r="2334">
+      <c r="A2334" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2334" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2334" t="inlineStr">
+        <is>
+          <t>5160</t>
+        </is>
+      </c>
+      <c r="D2334" t="inlineStr">
+        <is>
+          <t>HOMERIZ</t>
+        </is>
+      </c>
+      <c r="E2334" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="F2334" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="G2334" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="H2334" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I2334" t="n">
+        <v>920200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5160.xlsx
+++ b/data/5160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2334"/>
+  <dimension ref="A1:I2337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82068,6 +82068,111 @@
         <v>920200</v>
       </c>
     </row>
+    <row r="2335">
+      <c r="A2335" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2335" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2335" t="inlineStr">
+        <is>
+          <t>5160</t>
+        </is>
+      </c>
+      <c r="D2335" t="inlineStr">
+        <is>
+          <t>HOMERIZ</t>
+        </is>
+      </c>
+      <c r="E2335" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F2335" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G2335" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H2335" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="I2335" t="n">
+        <v>1821900</v>
+      </c>
+    </row>
+    <row r="2336">
+      <c r="A2336" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2336" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2336" t="inlineStr">
+        <is>
+          <t>5160</t>
+        </is>
+      </c>
+      <c r="D2336" t="inlineStr">
+        <is>
+          <t>HOMERIZ</t>
+        </is>
+      </c>
+      <c r="E2336" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="F2336" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G2336" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H2336" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I2336" t="n">
+        <v>947800</v>
+      </c>
+    </row>
+    <row r="2337">
+      <c r="A2337" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2337" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2337" t="inlineStr">
+        <is>
+          <t>5160</t>
+        </is>
+      </c>
+      <c r="D2337" t="inlineStr">
+        <is>
+          <t>HOMERIZ</t>
+        </is>
+      </c>
+      <c r="E2337" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="F2337" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="G2337" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="H2337" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I2337" t="n">
+        <v>2483500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
